--- a/biology/Zoologie/Harpactorinae/Harpactorinae.xlsx
+++ b/biology/Zoologie/Harpactorinae/Harpactorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Harpactorinae sont une sous-famille d'insectes hémiptères du sous-ordre des hétéroptères (punaises).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tribus
-Selon Catalogue of Life                                   (11 février 2023)[1] :
+          <t>Tribus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 février 2023) :
 Apiomerini
 Diaspidiini
 Dicrotelini
@@ -522,8 +539,43 @@
 Harpactorini
 Rhaphidosomini
 Tegeini
-Aperçu des genres
-Selon ITIS :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Harpactorinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpactorinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 genre Acholla Stål, 1862
 genre Arilus Hahn, 1831
 genre Atrachelus Amyot et Serville, 1843
@@ -536,9 +588,47 @@
 genre Rhynocoris Hahn, 1834
 genre Rocconota Stål, 1859
 genre Sinea Amyot et Serville, 1843
-genre Zelus Fabricius, 1802
-Genres rencontrés en Europe
-Selon Fauna Europaea                                      (11 février 2023)[2] :
+genre Zelus Fabricius, 1802</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harpactorinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpactorinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (11 février 2023) :
 Callistodema Reuter 1890
 Coranus Curtis 1833
 Nagusta Stål 1859
